--- a/Results/Asthma_result.xlsx
+++ b/Results/Asthma_result.xlsx
@@ -330,32 +330,18 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.0</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>721.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1299.0</v>
-      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>13</v>
       </c>
@@ -618,34 +604,18 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
-        <v>432.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1784.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4323.0</v>
-      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>23</v>
       </c>
@@ -1791,48 +1761,6 @@
       <c r="L52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53" t="n">
-        <v>446.0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1042.0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3191.0</v>
-      </c>
-      <c r="L53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54" t="n">
-        <v>3233.0</v>
-      </c>
-      <c r="L54"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1935,9 +1863,7 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" t="n">
-        <v>182398.0</v>
-      </c>
+      <c r="L3"/>
       <c r="M3" t="s">
         <v>13</v>
       </c>
@@ -2195,35 +2121,19 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>5137.321733904018</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20453.95924539898</v>
-      </c>
-      <c r="D13" t="n">
-        <v>21866.07604790758</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
-        <v>47952.491038520166</v>
-      </c>
-      <c r="I13" t="n">
-        <v>236049.21919736388</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4491.180418032901</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2918.2490775553474</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1059.8602685277751</v>
-      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
       <c r="M13" t="s">
         <v>23</v>
       </c>
@@ -3428,67 +3338,6 @@
       <c r="M52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54" t="n">
-        <v>229339.92472644526</v>
-      </c>
-      <c r="I54" t="n">
-        <v>795343.4003622154</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6093.485522087088</v>
-      </c>
-      <c r="K54" t="n">
-        <v>10812.452768461233</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3499.736620791171</v>
-      </c>
-      <c r="M54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3565,32 +3414,18 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>285.2842079686713</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2639.4348198226403</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3240.7891722086883</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="n">
-        <v>18279.951881027693</v>
-      </c>
-      <c r="I3" t="n">
-        <v>169984.6669441924</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2702.083242962458</v>
-      </c>
-      <c r="K3" t="n">
-        <v>687.2979318174582</v>
-      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>13</v>
       </c>
@@ -3843,34 +3678,18 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>3536.9048151857473</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19409.206639655178</v>
-      </c>
-      <c r="D13" t="n">
-        <v>37933.08940414064</v>
-      </c>
-      <c r="E13" t="n">
-        <v>947.9367046929905</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
-        <v>61827.13756367455</v>
-      </c>
-      <c r="I13" t="n">
-        <v>238568.58416468222</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2965.309620329559</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3161.9686513135657</v>
-      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>23</v>
       </c>
@@ -4986,46 +4805,6 @@
       <c r="L52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53" t="n">
-        <v>304128.4074514962</v>
-      </c>
-      <c r="I53" t="n">
-        <v>734198.9798327176</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4174.581866472066</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2587.0308493138214</v>
-      </c>
-      <c r="L53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5104,32 +4883,18 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.0</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>926.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1526.0</v>
-      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>13</v>
       </c>
@@ -5400,32 +5165,18 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>119.0</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
-        <v>419.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1853.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4304.0</v>
-      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>23</v>
       </c>
@@ -6619,66 +6370,6 @@
       <c r="L52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53" t="n">
-        <v>657.0</v>
-      </c>
-      <c r="L53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54" t="n">
-        <v>317.0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>815.0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2796.0</v>
-      </c>
-      <c r="L54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55" t="n">
-        <v>2538.0</v>
-      </c>
-      <c r="L55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6755,32 +6446,18 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>1177.0366267393229</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4814.289823142771</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14576.357371014066</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="n">
-        <v>20567.68382089616</v>
-      </c>
-      <c r="I3" t="n">
-        <v>167601.6634817001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1441.0099110795704</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1174.6427863241022</v>
-      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>13</v>
       </c>
@@ -7043,32 +6720,18 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>2728.042383331478</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20622.62850648353</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29515.252505062283</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
-        <v>52865.92339487728</v>
-      </c>
-      <c r="I13" t="n">
-        <v>249677.19055466854</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3838.664618651935</v>
-      </c>
-      <c r="K13" t="n">
-        <v>745.2214318024339</v>
-      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>23</v>
       </c>
@@ -8198,62 +7861,6 @@
       <c r="L52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54" t="n">
-        <v>290991.6312513525</v>
-      </c>
-      <c r="I54" t="n">
-        <v>747324.3013237967</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3855.233251804081</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2917.8341730458533</v>
-      </c>
-      <c r="L54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8343,9 +7950,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3" t="n">
-        <v>2664.0</v>
-      </c>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>13</v>
       </c>
@@ -8606,34 +8211,18 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>96.0</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="n">
-        <v>389.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1656.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4337.0</v>
-      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>23</v>
       </c>
@@ -9859,68 +9448,6 @@
       <c r="L52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53" t="n">
-        <v>796.0</v>
-      </c>
-      <c r="L53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54" t="n">
-        <v>317.0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>813.0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3332.0</v>
-      </c>
-      <c r="L54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55" t="n">
-        <v>2489.0</v>
-      </c>
-      <c r="L55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10263,34 +9790,18 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>4428.106627941318</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15987.155775353447</v>
-      </c>
-      <c r="D13" t="n">
-        <v>34040.257153737635</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="n">
-        <v>54455.51955703239</v>
-      </c>
-      <c r="H13" t="n">
-        <v>236646.46944018506</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8427.64299892937</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1583.2074250178164</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1866.1605788350855</v>
-      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>23</v>
       </c>
@@ -11498,62 +11009,6 @@
       <c r="L52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54" t="n">
-        <v>300079.7382068763</v>
-      </c>
-      <c r="H54" t="n">
-        <v>735397.9361848132</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6878.652650553873</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2732.6729577570354</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11643,9 +11098,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3" t="n">
-        <v>2432.0</v>
-      </c>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>13</v>
       </c>
@@ -11906,34 +11359,18 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>81.0</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="n">
-        <v>368.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1513.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4759.0</v>
-      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>23</v>
       </c>
@@ -13103,76 +12540,6 @@
       <c r="L52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53" t="n">
-        <v>256.0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>806.0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3162.0</v>
-      </c>
-      <c r="L53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54" t="n">
-        <v>1266.0</v>
-      </c>
-      <c r="L54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55" t="n">
-        <v>2509.0</v>
-      </c>
-      <c r="L55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -13260,9 +12627,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3" t="n">
-        <v>183940.0</v>
-      </c>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>13</v>
       </c>
@@ -13513,34 +12878,18 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>4339.823157976298</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14563.643635215645</v>
-      </c>
-      <c r="D13" t="n">
-        <v>31849.56902435356</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="n">
-        <v>50753.035817545504</v>
-      </c>
-      <c r="H13" t="n">
-        <v>232533.29725414523</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5199.821638228662</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1315.3502110024126</v>
-      </c>
-      <c r="K13" t="n">
-        <v>779.4950790783033</v>
-      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>23</v>
       </c>
@@ -14682,72 +14031,6 @@
       <c r="L52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>12429.083969815472</v>
-      </c>
-      <c r="C53" t="n">
-        <v>57533.7252156586</v>
-      </c>
-      <c r="D53" t="n">
-        <v>163677.29305068956</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2624.3650575437055</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53" t="n">
-        <v>241782.49660886262</v>
-      </c>
-      <c r="H53" t="n">
-        <v>789090.202489619</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5611.647570778855</v>
-      </c>
-      <c r="J53" t="n">
-        <v>8166.119509228793</v>
-      </c>
-      <c r="K53" t="n">
-        <v>438.53382151027677</v>
-      </c>
-      <c r="L53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -14850,9 +14133,7 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" t="n">
-        <v>1964.0</v>
-      </c>
+      <c r="L3"/>
       <c r="M3" t="s">
         <v>13</v>
       </c>
@@ -15116,35 +14397,19 @@
       <c r="A13" t="n">
         <v>15.0</v>
       </c>
-      <c r="B13" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>56.0</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="n">
-        <v>317.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1354.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4829.0</v>
-      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
       <c r="M13" t="s">
         <v>23</v>
       </c>
@@ -16376,71 +15641,6 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53" t="n">
-        <v>784.0</v>
-      </c>
-      <c r="M53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54" t="n">
-        <v>174.0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>610.0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2743.0</v>
-      </c>
-      <c r="M54"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55" t="n">
-        <v>1822.0</v>
-      </c>
-      <c r="M55"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
